--- a/TP6/Ejercicio3/mediciones.xlsx
+++ b/TP6/Ejercicio3/mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abril\Documents\GitHub\TC\TP6\Ejercicio3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD1ED91-F351-4AA9-9531-FDEDDD09E80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8419421-A357-4DB4-87E0-93CB224407FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7BD0CD09-BB56-432F-953B-46B80803EF07}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>dbs</t>
   </si>
@@ -119,6 +119,1240 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$41:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$41:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67EC-4A51-A34F-04F92438BF07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>xd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$41:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$41:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-67EC-4A51-A34F-04F92438BF07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="664069807"/>
+        <c:axId val="659472079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664069807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="659472079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="659472079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664069807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF2684E-1B11-4314-AEE6-B520AC53D548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA2CD0-1DB9-40BB-A68C-02FBE687CB8F}">
   <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="E39" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,7 +1709,7 @@
         <v>-7.2</v>
       </c>
       <c r="J2">
-        <f>(10^(I2/20))</f>
+        <f t="shared" ref="J2:J8" si="0">(10^(I2/20))</f>
         <v>0.43651583224016594</v>
       </c>
       <c r="L2">
@@ -489,18 +1723,18 @@
         <v>-58.2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B18" si="0">(10^(A3/20))</f>
+        <f t="shared" ref="B3:B18" si="1">(10^(A3/20))</f>
         <v>1.2302687708123808E-3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D12" si="1">B3^2</f>
+        <f t="shared" ref="D3:D12" si="2">B3^2</f>
         <v>1.5135612484362063E-6</v>
       </c>
       <c r="I3">
         <v>-60</v>
       </c>
       <c r="J3">
-        <f>(10^(I3/20))</f>
+        <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
       <c r="L3">
@@ -518,22 +1752,22 @@
         <v>-69</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5481338923357516E-4</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2589254117941651E-7</v>
       </c>
       <c r="I4">
         <v>-55.25</v>
       </c>
       <c r="J4">
-        <f>(10^(I4/20))</f>
+        <f t="shared" si="0"/>
         <v>1.7278259805078614E-3</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L13" si="2">J4^2</f>
+        <f t="shared" ref="L4:L8" si="3">J4^2</f>
         <v>2.9853826189179526E-6</v>
       </c>
     </row>
@@ -542,22 +1776,22 @@
         <v>-58</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2589254117941662E-3</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5848931924611109E-6</v>
       </c>
       <c r="I5">
         <v>-72.5</v>
       </c>
       <c r="J5">
-        <f>(10^(I5/20))</f>
+        <f t="shared" si="0"/>
         <v>2.3713737056616535E-4</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6234132519034826E-8</v>
       </c>
     </row>
@@ -567,22 +1801,22 @@
         <v>-71</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8183829312644545E-4</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9432823472428193E-8</v>
       </c>
       <c r="I6">
         <v>-57.8</v>
       </c>
       <c r="J6">
-        <f>(10^(I6/20))</f>
+        <f t="shared" si="0"/>
         <v>1.2882495516931341E-3</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6595869074375609E-6</v>
       </c>
     </row>
@@ -592,22 +1826,22 @@
         <v>-65.7</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1880003892896035E-4</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.691534803926908E-7</v>
       </c>
       <c r="I7">
         <v>-68.125</v>
       </c>
       <c r="J7">
-        <f>(10^(I7/20))</f>
+        <f t="shared" si="0"/>
         <v>3.9241897584845343E-4</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5399265260594908E-7</v>
       </c>
     </row>
@@ -617,22 +1851,22 @@
         <v>-71</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8183829312644545E-4</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9432823472428193E-8</v>
       </c>
       <c r="I8">
         <v>-62</v>
       </c>
       <c r="J8">
-        <f>(10^(I8/20))</f>
+        <f t="shared" si="0"/>
         <v>7.9432823472428099E-4</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3095734448019243E-7</v>
       </c>
     </row>
@@ -642,11 +1876,11 @@
         <v>-66.3</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8417236758409917E-4</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3442288153199204E-7</v>
       </c>
     </row>
@@ -656,11 +1890,11 @@
         <v>-74.5</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8836490894897972E-4</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5481338923357419E-8</v>
       </c>
     </row>
@@ -670,11 +1904,11 @@
         <v>-62.6</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4131024130091731E-4</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4954087385762427E-7</v>
       </c>
     </row>
@@ -684,11 +1918,11 @@
         <v>-68.25</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8681205463305171E-4</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4962356560944299E-7</v>
       </c>
     </row>
@@ -697,7 +1931,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.63095734448019325</v>
       </c>
     </row>
@@ -735,7 +1969,7 @@
         <v>-6.87</v>
       </c>
       <c r="C22">
-        <f>(10^(B22/20))</f>
+        <f t="shared" ref="C22:C28" si="4">(10^(B22/20))</f>
         <v>0.45341929777901396</v>
       </c>
       <c r="E22">
@@ -749,7 +1983,7 @@
         <v>-6</v>
       </c>
       <c r="L22">
-        <f>(10^(K22/20))</f>
+        <f t="shared" ref="L22:L28" si="5">(10^(K22/20))</f>
         <v>0.50118723362727224</v>
       </c>
       <c r="N22">
@@ -762,7 +1996,7 @@
         <v>-53.7</v>
       </c>
       <c r="C23">
-        <f>(10^(B23/20))</f>
+        <f t="shared" si="4"/>
         <v>2.0653801558105271E-3</v>
       </c>
       <c r="E23">
@@ -777,7 +2011,7 @@
         <v>-52</v>
       </c>
       <c r="L23">
-        <f>(10^(K23/20))</f>
+        <f t="shared" si="5"/>
         <v>2.5118864315095777E-3</v>
       </c>
       <c r="N23">
@@ -794,22 +2028,22 @@
         <v>-56</v>
       </c>
       <c r="C24">
-        <f>(10^(B24/20))</f>
+        <f t="shared" si="4"/>
         <v>1.5848931924611134E-3</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E28" si="3">C24^2</f>
+        <f t="shared" ref="E24:E28" si="6">C24^2</f>
         <v>2.5118864315095797E-6</v>
       </c>
       <c r="K24">
         <v>-65.8</v>
       </c>
       <c r="L24">
-        <f>(10^(K24/20))</f>
+        <f t="shared" si="5"/>
         <v>5.1286138399136462E-4</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N28" si="4">L24^2</f>
+        <f t="shared" ref="N24:N28" si="7">L24^2</f>
         <v>2.6302679918953794E-7</v>
       </c>
     </row>
@@ -818,22 +2052,22 @@
         <v>-69.3</v>
       </c>
       <c r="C25">
-        <f>(10^(B25/20))</f>
+        <f t="shared" si="4"/>
         <v>3.4276778654645016E-4</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1748975549395282E-7</v>
       </c>
       <c r="K25">
         <v>-69.5</v>
       </c>
       <c r="L25">
-        <f>(10^(K25/20))</f>
+        <f t="shared" si="5"/>
         <v>3.3496543915782746E-4</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1220184543019621E-7</v>
       </c>
     </row>
@@ -842,22 +2076,22 @@
         <v>-58</v>
       </c>
       <c r="C26">
-        <f>(10^(B26/20))</f>
+        <f t="shared" si="4"/>
         <v>1.2589254117941662E-3</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5848931924611109E-6</v>
       </c>
       <c r="K26">
         <v>-59.7</v>
       </c>
       <c r="L26">
-        <f>(10^(K26/20))</f>
+        <f t="shared" si="5"/>
         <v>1.0351421666793419E-3</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0715193052376026E-6</v>
       </c>
     </row>
@@ -866,22 +2100,22 @@
         <v>-68.7</v>
       </c>
       <c r="C27">
-        <f>(10^(B27/20))</f>
+        <f t="shared" si="4"/>
         <v>3.6728230049808434E-4</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3489628825916511E-7</v>
       </c>
       <c r="K27">
         <v>-69.8</v>
       </c>
       <c r="L27">
-        <f>(10^(K27/20))</f>
+        <f t="shared" si="5"/>
         <v>3.235936569296281E-4</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0471285480508985E-7</v>
       </c>
     </row>
@@ -890,22 +2124,22 @@
         <v>-67.5</v>
       </c>
       <c r="C28">
-        <f>(10^(B28/20))</f>
+        <f t="shared" si="4"/>
         <v>4.2169650342858197E-4</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7782794100389203E-7</v>
       </c>
       <c r="K28">
         <v>-67.5</v>
       </c>
       <c r="L28">
-        <f>(10^(K28/20))</f>
+        <f t="shared" si="5"/>
         <v>4.2169650342858197E-4</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7782794100389203E-7</v>
       </c>
     </row>
@@ -943,7 +2177,7 @@
         <v>-6.87</v>
       </c>
       <c r="C32">
-        <f>(10^(B32/20))</f>
+        <f t="shared" ref="C32:C38" si="8">(10^(B32/20))</f>
         <v>0.45341929777901396</v>
       </c>
       <c r="E32">
@@ -954,7 +2188,7 @@
         <v>-5.6</v>
       </c>
       <c r="K32">
-        <f>(10^(J32/20))</f>
+        <f t="shared" ref="K32:K38" si="9">(10^(J32/20))</f>
         <v>0.52480746024977254</v>
       </c>
       <c r="M32">
@@ -967,7 +2201,7 @@
         <v>-53.7</v>
       </c>
       <c r="C33">
-        <f>(10^(B33/20))</f>
+        <f t="shared" si="8"/>
         <v>2.0653801558105271E-3</v>
       </c>
       <c r="E33">
@@ -982,7 +2216,7 @@
         <v>-51.7</v>
       </c>
       <c r="K33">
-        <f>(10^(J33/20))</f>
+        <f t="shared" si="9"/>
         <v>2.6001595631652717E-3</v>
       </c>
       <c r="M33">
@@ -999,22 +2233,22 @@
         <v>-55.6</v>
       </c>
       <c r="C34">
-        <f>(10^(B34/20))</f>
+        <f t="shared" si="8"/>
         <v>1.6595869074375591E-3</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E38" si="5">C34^2</f>
+        <f t="shared" ref="E34:E38" si="10">C34^2</f>
         <v>2.7542287033381612E-6</v>
       </c>
       <c r="J34">
         <v>-57.8</v>
       </c>
       <c r="K34">
-        <f>(10^(J34/20))</f>
+        <f t="shared" si="9"/>
         <v>1.2882495516931341E-3</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:M38" si="6">K34^2</f>
+        <f t="shared" ref="M34:M38" si="11">K34^2</f>
         <v>1.6595869074375609E-6</v>
       </c>
     </row>
@@ -1023,22 +2257,22 @@
         <v>-69.3</v>
       </c>
       <c r="C35">
-        <f>(10^(B35/20))</f>
+        <f t="shared" si="8"/>
         <v>3.4276778654645016E-4</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.1748975549395282E-7</v>
       </c>
       <c r="J35">
         <v>-75.8</v>
       </c>
       <c r="K35">
-        <f>(10^(J35/20))</f>
+        <f t="shared" si="9"/>
         <v>1.6218100973589279E-4</v>
       </c>
       <c r="M35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.6302679918953755E-8</v>
       </c>
     </row>
@@ -1047,22 +2281,22 @@
         <v>-62.5</v>
       </c>
       <c r="C36">
-        <f>(10^(B36/20))</f>
+        <f t="shared" si="8"/>
         <v>7.4989420933245553E-4</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.6234132519034861E-7</v>
       </c>
       <c r="J36">
         <v>-66.260000000000005</v>
       </c>
       <c r="K36">
-        <f>(10^(J36/20))</f>
+        <f t="shared" si="9"/>
         <v>4.8640720569146127E-4</v>
       </c>
       <c r="M36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.365919697485755E-7</v>
       </c>
     </row>
@@ -1071,22 +2305,22 @@
         <v>-68.7</v>
       </c>
       <c r="C37">
-        <f>(10^(B37/20))</f>
+        <f t="shared" si="8"/>
         <v>3.6728230049808434E-4</v>
       </c>
       <c r="E37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.3489628825916511E-7</v>
       </c>
       <c r="J37">
         <v>-69.3</v>
       </c>
       <c r="K37">
-        <f>(10^(J37/20))</f>
+        <f t="shared" si="9"/>
         <v>3.4276778654645016E-4</v>
       </c>
       <c r="M37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1748975549395282E-7</v>
       </c>
     </row>
@@ -1095,22 +2329,22 @@
         <v>-67.5</v>
       </c>
       <c r="C38">
-        <f>(10^(B38/20))</f>
+        <f t="shared" si="8"/>
         <v>4.2169650342858197E-4</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.7782794100389203E-7</v>
       </c>
       <c r="J38">
         <v>-51.5</v>
       </c>
       <c r="K38">
-        <f>(10^(J38/20))</f>
+        <f t="shared" si="9"/>
         <v>2.6607250597988066E-3</v>
       </c>
       <c r="M38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.0794578438413631E-6</v>
       </c>
     </row>
@@ -1121,13 +2355,25 @@
       <c r="B40" t="s">
         <v>11</v>
       </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0</v>
       </c>
       <c r="B41">
-        <v>9.7000000000000003E-2</v>
+        <v>0.97</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -1137,6 +2383,12 @@
       <c r="B42">
         <v>1.167</v>
       </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
@@ -1524,5 +2776,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>